--- a/Predictive Modeling/Probability Plots.xlsx
+++ b/Predictive Modeling/Probability Plots.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssear\Desktop\Masters\Applied Data Science\Project 1\Predictive Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F2FD99-2F63-4ACB-856A-EF52D7012F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0569F97-B2F3-4096-8CC7-E62D3BE2BD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{606C1626-26C4-419C-8EAB-85FD33B9C572}"/>
   </bookViews>
   <sheets>
     <sheet name="Model Probabilities" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Model Probabilities'!#REF!</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
   <si>
     <t>0.9-1.0</t>
   </si>
@@ -86,12 +89,18 @@
   <si>
     <t>0.4-0.7</t>
   </si>
+  <si>
+    <t>0.1-0.4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,37 +109,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5F5F5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -142,26 +148,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -199,10 +207,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -210,7 +215,11 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Light Gradient Boosting Machine</a:t>
             </a:r>
           </a:p>
@@ -239,10 +248,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -298,10 +304,7 @@
                     <a:pPr>
                       <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="75000"/>
-                            <a:lumOff val="25000"/>
-                          </a:schemeClr>
+                          <a:sysClr val="windowText" lastClr="000000"/>
                         </a:solidFill>
                         <a:latin typeface="+mn-lt"/>
                         <a:ea typeface="+mn-ea"/>
@@ -309,25 +312,49 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1100" b="1"/>
+                      <a:rPr lang="en-US" sz="1100" b="1">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:rPr>
                       <a:t>Don't Bother</a:t>
                     </a:r>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+                      <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:rPr>
                       <a:t> </a:t>
                     </a:r>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                      <a:rPr lang="en-US" sz="1100" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:rPr>
                       <a:t>(56%)</a:t>
                     </a:r>
                     <a:br>
-                      <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                      <a:rPr lang="en-US" sz="1100" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:rPr>
                     </a:br>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                      <a:rPr lang="en-US" sz="1100" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:rPr>
                       <a:t>0.8% interested</a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-US" sz="1100"/>
+                    <a:endParaRPr lang="en-US" sz="1100">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -347,10 +374,7 @@
                   <a:pPr>
                     <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
+                        <a:sysClr val="windowText" lastClr="000000"/>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -398,10 +422,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -497,10 +518,7 @@
                     <a:pPr>
                       <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="75000"/>
-                            <a:lumOff val="25000"/>
-                          </a:schemeClr>
+                          <a:sysClr val="windowText" lastClr="000000"/>
                         </a:solidFill>
                         <a:latin typeface="+mn-lt"/>
                         <a:ea typeface="+mn-ea"/>
@@ -508,18 +526,34 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1100" b="1"/>
+                      <a:rPr lang="en-US" sz="1100" b="1">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:rPr>
                       <a:t>Contact Last </a:t>
                     </a:r>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1100"/>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:rPr>
                       <a:t>(12%)</a:t>
                     </a:r>
                     <a:br>
-                      <a:rPr lang="en-US" sz="1100"/>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:rPr>
                     </a:br>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1100"/>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:rPr>
                       <a:t>12% interested</a:t>
                     </a:r>
                   </a:p>
@@ -541,10 +575,7 @@
                   <a:pPr>
                     <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
+                        <a:sysClr val="windowText" lastClr="000000"/>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -592,10 +623,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -742,10 +770,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -817,9 +842,7 @@
           <c:order val="3"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -833,10 +856,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -854,8 +874,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.3571593868898096E-3"/>
-                  <c:y val="-5.1124025297253656E-2"/>
+                  <c:x val="4.1985691775601117E-3"/>
+                  <c:y val="-5.1123957336893039E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -864,19 +884,19 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1050" b="1"/>
+                      <a:rPr lang="en-US" sz="1100" b="1"/>
                       <a:t>Priority</a:t>
                     </a:r>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1050"/>
-                      <a:t> (2%)</a:t>
+                      <a:rPr lang="en-US" sz="1100"/>
+                      <a:t> (3%)</a:t>
                     </a:r>
                     <a:br>
-                      <a:rPr lang="en-US" sz="1050"/>
+                      <a:rPr lang="en-US" sz="1100"/>
                     </a:br>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1050"/>
-                      <a:t>44% intested</a:t>
+                      <a:rPr lang="en-US" sz="1100"/>
+                      <a:t>44% interested</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -890,6 +910,12 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.21652370150637495"/>
+                      <c:h val="8.2878044121693403E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -913,10 +939,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1109,7 +1132,11 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Neural Network with Class Weights</a:t>
             </a:r>
           </a:p>
@@ -1119,8 +1146,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.2120262650854764"/>
-          <c:y val="0.12667719346482723"/>
+          <c:x val="0.20916597880910739"/>
+          <c:y val="0.11566178533745096"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1195,12 +1222,9 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="75000"/>
-                            <a:lumOff val="25000"/>
-                          </a:schemeClr>
+                          <a:sysClr val="windowText" lastClr="000000"/>
                         </a:solidFill>
                         <a:latin typeface="+mn-lt"/>
                         <a:ea typeface="+mn-ea"/>
@@ -1208,27 +1232,51 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1100" b="1"/>
+                      <a:rPr lang="en-US" sz="1100" b="1">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:rPr>
                       <a:t>Don't</a:t>
                     </a:r>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+                      <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:rPr>
                       <a:t> Bother </a:t>
                     </a:r>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                      <a:rPr lang="en-US" sz="1100" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:rPr>
                       <a:t>(48%)</a:t>
                     </a:r>
                   </a:p>
                   <a:p>
                     <a:pPr>
-                      <a:defRPr/>
+                      <a:defRPr sz="1100">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:defRPr>
                     </a:pPr>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                      <a:rPr lang="en-US" sz="1100" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:rPr>
                       <a:t>0.1% interested</a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-US" sz="1100"/>
+                    <a:endParaRPr lang="en-US" sz="1100">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1246,12 +1294,9 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
+                        <a:sysClr val="windowText" lastClr="000000"/>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -1297,12 +1342,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1312,14 +1354,12 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
+            <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1451,18 +1491,15 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
-                <a:pPr algn="ctr">
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1472,14 +1509,12 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
+            <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1560,20 +1595,20 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US" b="1"/>
+                      <a:rPr lang="en-US" sz="1100" b="1"/>
                       <a:t>Secondary</a:t>
                     </a:r>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="en-US" sz="1100" baseline="0"/>
                       <a:t> (17%)</a:t>
                     </a:r>
                   </a:p>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="en-US" sz="1100" baseline="0"/>
                       <a:t>18% interested</a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-US" sz="1100"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1607,18 +1642,15 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
-                <a:pPr algn="ctr">
+                <a:pPr>
                   <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1628,14 +1660,12 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
+            <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1690,10 +1720,7 @@
           <c:order val="3"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1706,8 +1733,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.2809702000961162E-3"/>
-                  <c:y val="-6.5843084210193067E-3"/>
+                  <c:x val="1.4206839237271482E-3"/>
+                  <c:y val="-3.8304563891752366E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1718,7 +1745,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr algn="ctr">
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
                           <a:sysClr val="windowText" lastClr="000000"/>
                         </a:solidFill>
@@ -1746,7 +1773,7 @@
                   </a:p>
                   <a:p>
                     <a:pPr algn="ctr">
-                      <a:defRPr>
+                      <a:defRPr sz="1100">
                         <a:solidFill>
                           <a:sysClr val="windowText" lastClr="000000"/>
                         </a:solidFill>
@@ -1777,7 +1804,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr algn="ctr">
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:sysClr val="windowText" lastClr="000000"/>
                       </a:solidFill>
@@ -1825,7 +1852,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -1837,14 +1864,12 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
+            <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -3080,16 +3105,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>395654</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>278423</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>182755</xdr:rowOff>
+      <xdr:rowOff>160774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>314</xdr:colOff>
+      <xdr:colOff>491218</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>39880</xdr:rowOff>
+      <xdr:rowOff>17899</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3118,16 +3143,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>490903</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>177991</xdr:rowOff>
+      <xdr:rowOff>196831</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>65941</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>51287</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>71175</xdr:rowOff>
+      <xdr:rowOff>90015</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3454,10 +3479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1385AC18-C18D-46DB-8509-14A95C7F097A}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3466,629 +3491,962 @@
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="36" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="6">
         <v>36212</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="6">
         <v>58</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="6">
         <v>36154</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <f>C2/B2</f>
         <v>1.601679001435988E-3</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <f>SUM(B2)</f>
         <v>36212</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <f>SUM(C2)</f>
         <v>58</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <f>SUM(D2)</f>
         <v>36154</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <f>I2/H2</f>
         <v>1.601679001435988E-3</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <f>H2/SUM($H$2:$H$5)</f>
         <v>0.47508593319514053</v>
       </c>
+      <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="6">
         <v>2184</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="6">
         <v>62</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="6">
         <v>2122</v>
       </c>
-      <c r="E3">
-        <f>C3/B3</f>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E10" si="0">C3/B3</f>
         <v>2.8388278388278388E-2</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3">
+      <c r="F3" s="3"/>
+      <c r="G3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="3">
         <f>SUM(B3:B5)</f>
         <v>7519</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <f>SUM(C3:C5)</f>
         <v>437</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <f>SUM(D3:D5)</f>
         <v>7082</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <f>I3/H3</f>
         <v>5.8119430775369067E-2</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <f>H3/SUM($H$2:$H$5)</f>
         <v>9.8646060192595308E-2</v>
       </c>
+      <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="6">
         <v>2583</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="6">
         <v>138</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="6">
         <v>2445</v>
       </c>
-      <c r="E4">
-        <f>C4/B4</f>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
         <v>5.3426248548199766E-2</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <f>SUM(B6:B8)</f>
         <v>13228</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <f>SUM(C6:C8)</f>
         <v>2361</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <f>SUM(D6:D8)</f>
         <v>10867</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <f>I4/H4</f>
         <v>0.17848503175083158</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <f>H4/SUM($H$2:$H$5)</f>
         <v>0.17354569546849991</v>
       </c>
+      <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="6">
         <v>2752</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="6">
         <v>237</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="6">
         <v>2515</v>
       </c>
-      <c r="E5">
-        <f>C5/B5</f>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
         <v>8.6119186046511628E-2</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <f>SUM(B9:B11)</f>
         <v>19263</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <f>SUM(C9:C11)</f>
         <v>6458</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <f>SUM(D9:D11)</f>
         <v>12805</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <f>I5/H5</f>
         <v>0.33525411410476041</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <f>H5/SUM($H$2:$H$5)</f>
         <v>0.25272231114376426</v>
       </c>
+      <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="6">
         <v>2983</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="6">
         <v>325</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="6">
         <v>2658</v>
       </c>
-      <c r="E6">
-        <f>C6/B6</f>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
         <v>0.1089507207509219</v>
       </c>
-      <c r="H6">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3">
         <f>SUM(H2:H5)</f>
         <v>76222</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <f>SUM(I2:I5)</f>
         <v>9314</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <f>SUM(J2:J5)</f>
         <v>66908</v>
       </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="6">
         <v>3734</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="6">
         <v>608</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="6">
         <v>3126</v>
       </c>
-      <c r="E7">
-        <f>C7/B7</f>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
         <v>0.1628280664167113</v>
       </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="6">
         <v>6511</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="6">
         <v>1428</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="6">
         <v>5083</v>
       </c>
-      <c r="E8">
-        <f>C8/B8</f>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
         <v>0.21932114882506529</v>
       </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="6">
         <v>15702</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="6">
         <v>4998</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="6">
         <v>10704</v>
       </c>
-      <c r="E9">
-        <f>C9/B9</f>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
         <v>0.31830340084065722</v>
       </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="6">
         <v>3561</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="6">
         <v>1460</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="6">
         <v>2101</v>
       </c>
-      <c r="E10">
-        <f>C10/B10</f>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
         <v>0.40999719180005617</v>
       </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="6">
         <v>0</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="6">
         <v>0</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="6">
         <v>0</v>
       </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3">
         <f>SUM(B2:B11)</f>
         <v>76222</v>
       </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="36" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="F16" s="3"/>
+      <c r="G16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="L16" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="6">
         <v>64094</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="6">
         <v>544</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="6">
         <v>63550</v>
       </c>
-      <c r="E17">
-        <f>C17/B17</f>
+      <c r="E17" s="1">
+        <f t="shared" ref="E17:E22" si="1">C17/B17</f>
         <v>8.4875339345336538E-3</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="F17" s="3"/>
+      <c r="G17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H17">
-        <f>SUM(B17)</f>
+      <c r="H17" s="3">
+        <f t="shared" ref="H17:J18" si="2">SUM(B17)</f>
         <v>64094</v>
       </c>
-      <c r="I17">
-        <f>SUM(C17)</f>
+      <c r="I17" s="3">
+        <f t="shared" si="2"/>
         <v>544</v>
       </c>
-      <c r="J17">
-        <f>SUM(D17)</f>
+      <c r="J17" s="3">
+        <f t="shared" si="2"/>
         <v>63550</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="3">
         <f>I17/H17</f>
         <v>8.4875339345336538E-3</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="3">
         <f>H17/SUM($H$17:$H$20)</f>
         <v>0.56059055565759663</v>
       </c>
+      <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="6">
         <v>14202</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="6">
         <v>2059</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="6">
         <v>12143</v>
       </c>
-      <c r="E18">
-        <f>C18/B18</f>
+      <c r="E18" s="1">
+        <f t="shared" si="1"/>
         <v>0.14497958034079708</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="F18" s="3"/>
+      <c r="G18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H18">
-        <f>SUM(B18)</f>
+      <c r="H18" s="3">
+        <f t="shared" si="2"/>
         <v>14202</v>
       </c>
-      <c r="I18">
-        <f>SUM(C18)</f>
+      <c r="I18" s="3">
+        <f t="shared" si="2"/>
         <v>2059</v>
       </c>
-      <c r="J18">
-        <f>SUM(D18)</f>
+      <c r="J18" s="3">
+        <f t="shared" si="2"/>
         <v>12143</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="3">
         <f>I18/H18</f>
         <v>0.14497958034079708</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="3">
         <f>H18/SUM($H$17:$H$20)</f>
         <v>0.12421610558631366</v>
       </c>
+      <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="6">
         <v>15384</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="6">
         <v>3910</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="6">
         <v>11474</v>
       </c>
-      <c r="E19">
-        <f>C19/B19</f>
+      <c r="E19" s="1">
+        <f t="shared" si="1"/>
         <v>0.25416016640665628</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="F19" s="3"/>
+      <c r="G19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="3">
         <f>SUM(B19:B20)</f>
         <v>33102</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="3">
         <f>SUM(C19:C20)</f>
         <v>10033</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="3">
         <f>SUM(D19:D20)</f>
         <v>23069</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="3">
         <f>I19/H19</f>
         <v>0.30309346867258774</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="3">
         <f>H19/SUM($H$17:$H$20)</f>
         <v>0.2895227099787463</v>
       </c>
+      <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="6">
         <v>17718</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="6">
         <v>6123</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="6">
         <v>11595</v>
       </c>
-      <c r="E20">
-        <f>C20/B20</f>
+      <c r="E20" s="1">
+        <f t="shared" si="1"/>
         <v>0.34558076532339993</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="F20" s="3"/>
+      <c r="G20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="3">
         <f>SUM(B21:B26)</f>
         <v>2935</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="3">
         <f>SUM(C21:C26)</f>
         <v>1308</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="3">
         <f>SUM(D21:D26)</f>
         <v>1627</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="3">
         <f>I20/H20</f>
         <v>0.44565587734241907</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="3">
         <f>H20/SUM($H$17:$H$20)</f>
         <v>2.5670628777343375E-2</v>
       </c>
+      <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="6">
         <v>2921</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="6">
         <v>1302</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="6">
         <v>1619</v>
       </c>
-      <c r="E21">
-        <f>C21/B21</f>
+      <c r="E21" s="1">
+        <f t="shared" si="1"/>
         <v>0.44573776104073948</v>
       </c>
-      <c r="H21">
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3">
         <f>SUM(H17:H20)</f>
         <v>114333</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="3">
         <f>SUM(I17:I20)</f>
         <v>13944</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="3">
         <f>SUM(J17:J20)</f>
         <v>100389</v>
       </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="6">
         <v>14</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="6">
         <v>6</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="6">
         <v>8</v>
       </c>
-      <c r="E22">
-        <f>C22/B22</f>
+      <c r="E22" s="1">
+        <f t="shared" si="1"/>
         <v>0.42857142857142855</v>
       </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="6">
         <v>0</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="6">
         <v>0</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="6">
         <v>0</v>
       </c>
+      <c r="E23" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="6">
         <v>0</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="6">
         <v>0</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="6">
         <v>0</v>
       </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="6">
         <v>0</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="6">
         <v>0</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="6">
         <v>0</v>
       </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="6">
         <v>0</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="6">
         <v>0</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="6">
         <v>0</v>
       </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
